--- a/BackTest/2019-11-21 BackTest FCT.xlsx
+++ b/BackTest/2019-11-21 BackTest FCT.xlsx
@@ -11476,17 +11476,13 @@
         <v>115.5</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>115</v>
-      </c>
-      <c r="K317" t="n">
-        <v>115</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
@@ -11515,22 +11511,14 @@
         <v>115</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>115</v>
-      </c>
-      <c r="K318" t="n">
-        <v>115</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11558,22 +11546,14 @@
         <v>115.5</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>116</v>
-      </c>
-      <c r="K319" t="n">
-        <v>115</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11607,10 +11587,10 @@
         <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K320" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
@@ -11649,7 +11629,7 @@
         <v>115</v>
       </c>
       <c r="K321" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11692,7 +11672,7 @@
         <v>115</v>
       </c>
       <c r="K322" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -11735,7 +11715,7 @@
         <v>116</v>
       </c>
       <c r="K323" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -11775,10 +11755,10 @@
         <v>0</v>
       </c>
       <c r="J324" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K324" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -11821,7 +11801,7 @@
         <v>117</v>
       </c>
       <c r="K325" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -11864,7 +11844,7 @@
         <v>117</v>
       </c>
       <c r="K326" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -11898,16 +11878,14 @@
         <v>116.5</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>117</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -11941,16 +11919,14 @@
         <v>116</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
         <v>116</v>
-      </c>
-      <c r="K328" t="n">
-        <v>115</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -11984,16 +11960,14 @@
         <v>116</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
         <v>116</v>
-      </c>
-      <c r="K329" t="n">
-        <v>115</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12027,16 +12001,14 @@
         <v>116</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
         <v>116</v>
-      </c>
-      <c r="K330" t="n">
-        <v>115</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12070,16 +12042,14 @@
         <v>115.5</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
         <v>116</v>
-      </c>
-      <c r="K331" t="n">
-        <v>115</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12113,16 +12083,14 @@
         <v>115</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>115</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12156,16 +12124,14 @@
         <v>116</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>117</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12199,16 +12165,14 @@
         <v>117</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>117</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12242,16 +12206,14 @@
         <v>116.5</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>117</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12285,16 +12247,14 @@
         <v>116.5</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>117</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12328,16 +12288,14 @@
         <v>116.5</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
         <v>116</v>
-      </c>
-      <c r="K337" t="n">
-        <v>115</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12371,16 +12329,14 @@
         <v>116.5</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>117</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12414,16 +12370,14 @@
         <v>117</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>117</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12457,16 +12411,14 @@
         <v>117.5</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>118</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12500,16 +12452,14 @@
         <v>118</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>118</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12543,16 +12493,14 @@
         <v>118</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>118</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12586,16 +12534,14 @@
         <v>118</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>118</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12629,16 +12575,14 @@
         <v>118</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>119</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12672,16 +12616,14 @@
         <v>117</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>118</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12715,16 +12657,14 @@
         <v>117</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>118</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12758,16 +12698,14 @@
         <v>118.5</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>118</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -12801,16 +12739,14 @@
         <v>119</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>119</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -12844,16 +12780,14 @@
         <v>118.5</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>118</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -12894,7 +12828,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -12935,7 +12869,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -12976,7 +12910,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13017,7 +12951,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -13058,7 +12992,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13099,7 +13033,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13140,7 +13074,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13181,7 +13115,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13222,7 +13156,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13263,7 +13197,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13304,7 +13238,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13345,7 +13279,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13386,7 +13320,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -13427,7 +13361,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13468,7 +13402,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13509,7 +13443,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13550,7 +13484,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13591,7 +13525,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13632,7 +13566,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13673,7 +13607,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13714,7 +13648,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13755,7 +13689,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13796,7 +13730,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13837,7 +13771,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -13878,7 +13812,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -13919,7 +13853,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -13960,7 +13894,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14001,7 +13935,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -14042,7 +13976,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -14083,7 +14017,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -14124,7 +14058,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -14165,7 +14099,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -14206,7 +14140,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -14247,7 +14181,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -14288,7 +14222,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -14329,7 +14263,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -14370,7 +14304,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -14411,7 +14345,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -14452,7 +14386,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -14493,7 +14427,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -14534,7 +14468,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -14575,7 +14509,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -14616,7 +14550,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -14657,7 +14591,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -14698,7 +14632,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -14739,7 +14673,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -14780,7 +14714,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -14821,7 +14755,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -14862,7 +14796,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -14903,7 +14837,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -14944,7 +14878,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -14985,7 +14919,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -15026,7 +14960,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -15067,7 +15001,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -15108,7 +15042,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -15149,7 +15083,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -15190,7 +15124,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -15227,1069 +15161,1249 @@
         <v>0</v>
       </c>
       <c r="I407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>126</v>
+      </c>
+      <c r="C408" t="n">
+        <v>126</v>
+      </c>
+      <c r="D408" t="n">
+        <v>126</v>
+      </c>
+      <c r="E408" t="n">
+        <v>126</v>
+      </c>
+      <c r="F408" t="n">
+        <v>590.2307</v>
+      </c>
+      <c r="G408" t="n">
+        <v>126</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>116</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>125</v>
+      </c>
+      <c r="C409" t="n">
+        <v>124</v>
+      </c>
+      <c r="D409" t="n">
+        <v>125</v>
+      </c>
+      <c r="E409" t="n">
+        <v>124</v>
+      </c>
+      <c r="F409" t="n">
+        <v>6215.9343</v>
+      </c>
+      <c r="G409" t="n">
+        <v>125</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>116</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>124</v>
+      </c>
+      <c r="C410" t="n">
+        <v>123</v>
+      </c>
+      <c r="D410" t="n">
+        <v>124</v>
+      </c>
+      <c r="E410" t="n">
+        <v>123</v>
+      </c>
+      <c r="F410" t="n">
+        <v>45784.3859</v>
+      </c>
+      <c r="G410" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>116</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>123</v>
+      </c>
+      <c r="C411" t="n">
+        <v>123</v>
+      </c>
+      <c r="D411" t="n">
+        <v>123</v>
+      </c>
+      <c r="E411" t="n">
+        <v>123</v>
+      </c>
+      <c r="F411" t="n">
+        <v>7331.2782</v>
+      </c>
+      <c r="G411" t="n">
+        <v>123</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>116</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>124</v>
+      </c>
+      <c r="C412" t="n">
+        <v>124</v>
+      </c>
+      <c r="D412" t="n">
+        <v>124</v>
+      </c>
+      <c r="E412" t="n">
+        <v>124</v>
+      </c>
+      <c r="F412" t="n">
+        <v>13329.1126</v>
+      </c>
+      <c r="G412" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>116</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>124</v>
+      </c>
+      <c r="C413" t="n">
+        <v>123</v>
+      </c>
+      <c r="D413" t="n">
+        <v>124</v>
+      </c>
+      <c r="E413" t="n">
+        <v>123</v>
+      </c>
+      <c r="F413" t="n">
+        <v>55.4299</v>
+      </c>
+      <c r="G413" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>116</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>123</v>
+      </c>
+      <c r="C414" t="n">
+        <v>123</v>
+      </c>
+      <c r="D414" t="n">
+        <v>123</v>
+      </c>
+      <c r="E414" t="n">
+        <v>123</v>
+      </c>
+      <c r="F414" t="n">
+        <v>20511.7647</v>
+      </c>
+      <c r="G414" t="n">
+        <v>123</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>116</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>122</v>
+      </c>
+      <c r="C415" t="n">
+        <v>122</v>
+      </c>
+      <c r="D415" t="n">
+        <v>122</v>
+      </c>
+      <c r="E415" t="n">
+        <v>122</v>
+      </c>
+      <c r="F415" t="n">
+        <v>343.9521</v>
+      </c>
+      <c r="G415" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>116</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>122</v>
+      </c>
+      <c r="C416" t="n">
+        <v>122</v>
+      </c>
+      <c r="D416" t="n">
+        <v>122</v>
+      </c>
+      <c r="E416" t="n">
+        <v>122</v>
+      </c>
+      <c r="F416" t="n">
+        <v>14186.0267</v>
+      </c>
+      <c r="G416" t="n">
+        <v>122</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>116</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>123</v>
+      </c>
+      <c r="C417" t="n">
+        <v>123</v>
+      </c>
+      <c r="D417" t="n">
+        <v>123</v>
+      </c>
+      <c r="E417" t="n">
+        <v>123</v>
+      </c>
+      <c r="F417" t="n">
+        <v>289.2562</v>
+      </c>
+      <c r="G417" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>116</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>124</v>
+      </c>
+      <c r="C418" t="n">
+        <v>123</v>
+      </c>
+      <c r="D418" t="n">
+        <v>124</v>
+      </c>
+      <c r="E418" t="n">
+        <v>123</v>
+      </c>
+      <c r="F418" t="n">
+        <v>51.736</v>
+      </c>
+      <c r="G418" t="n">
+        <v>123</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>116</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>124</v>
+      </c>
+      <c r="C419" t="n">
+        <v>124</v>
+      </c>
+      <c r="D419" t="n">
+        <v>124</v>
+      </c>
+      <c r="E419" t="n">
+        <v>124</v>
+      </c>
+      <c r="F419" t="n">
+        <v>5876.4937</v>
+      </c>
+      <c r="G419" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>116</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>124</v>
+      </c>
+      <c r="C420" t="n">
+        <v>124</v>
+      </c>
+      <c r="D420" t="n">
+        <v>124</v>
+      </c>
+      <c r="E420" t="n">
+        <v>124</v>
+      </c>
+      <c r="F420" t="n">
+        <v>40011.4364</v>
+      </c>
+      <c r="G420" t="n">
+        <v>124</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>116</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>125</v>
+      </c>
+      <c r="C421" t="n">
+        <v>125</v>
+      </c>
+      <c r="D421" t="n">
+        <v>125</v>
+      </c>
+      <c r="E421" t="n">
+        <v>125</v>
+      </c>
+      <c r="F421" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G421" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>116</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>125</v>
+      </c>
+      <c r="C422" t="n">
+        <v>125</v>
+      </c>
+      <c r="D422" t="n">
+        <v>125</v>
+      </c>
+      <c r="E422" t="n">
+        <v>125</v>
+      </c>
+      <c r="F422" t="n">
+        <v>9604.096299999999</v>
+      </c>
+      <c r="G422" t="n">
+        <v>125</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>116</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>125</v>
+      </c>
+      <c r="C423" t="n">
+        <v>125</v>
+      </c>
+      <c r="D423" t="n">
+        <v>125</v>
+      </c>
+      <c r="E423" t="n">
+        <v>125</v>
+      </c>
+      <c r="F423" t="n">
+        <v>22469.5709</v>
+      </c>
+      <c r="G423" t="n">
+        <v>125</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>116</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>126</v>
+      </c>
+      <c r="C424" t="n">
+        <v>126</v>
+      </c>
+      <c r="D424" t="n">
+        <v>126</v>
+      </c>
+      <c r="E424" t="n">
+        <v>126</v>
+      </c>
+      <c r="F424" t="n">
+        <v>4753.6392</v>
+      </c>
+      <c r="G424" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>116</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>126</v>
+      </c>
+      <c r="C425" t="n">
+        <v>126</v>
+      </c>
+      <c r="D425" t="n">
+        <v>126</v>
+      </c>
+      <c r="E425" t="n">
+        <v>126</v>
+      </c>
+      <c r="F425" t="n">
+        <v>23537.2339</v>
+      </c>
+      <c r="G425" t="n">
+        <v>126</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>116</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>126</v>
+      </c>
+      <c r="C426" t="n">
+        <v>128</v>
+      </c>
+      <c r="D426" t="n">
+        <v>128</v>
+      </c>
+      <c r="E426" t="n">
+        <v>126</v>
+      </c>
+      <c r="F426" t="n">
+        <v>25547.6541</v>
+      </c>
+      <c r="G426" t="n">
+        <v>127</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>116</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>128</v>
+      </c>
+      <c r="C427" t="n">
+        <v>128</v>
+      </c>
+      <c r="D427" t="n">
+        <v>128</v>
+      </c>
+      <c r="E427" t="n">
+        <v>128</v>
+      </c>
+      <c r="F427" t="n">
+        <v>17646.7117</v>
+      </c>
+      <c r="G427" t="n">
+        <v>128</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>116</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>129</v>
+      </c>
+      <c r="C428" t="n">
+        <v>128</v>
+      </c>
+      <c r="D428" t="n">
+        <v>129</v>
+      </c>
+      <c r="E428" t="n">
+        <v>128</v>
+      </c>
+      <c r="F428" t="n">
+        <v>32904.9711</v>
+      </c>
+      <c r="G428" t="n">
+        <v>128</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>116</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>129</v>
+      </c>
+      <c r="C429" t="n">
+        <v>128</v>
+      </c>
+      <c r="D429" t="n">
+        <v>129</v>
+      </c>
+      <c r="E429" t="n">
+        <v>128</v>
+      </c>
+      <c r="F429" t="n">
+        <v>13283.5619</v>
+      </c>
+      <c r="G429" t="n">
+        <v>128</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>116</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>128</v>
+      </c>
+      <c r="C430" t="n">
+        <v>127</v>
+      </c>
+      <c r="D430" t="n">
+        <v>128</v>
+      </c>
+      <c r="E430" t="n">
+        <v>127</v>
+      </c>
+      <c r="F430" t="n">
+        <v>1987.7108</v>
+      </c>
+      <c r="G430" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>116</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>127</v>
+      </c>
+      <c r="C431" t="n">
+        <v>127</v>
+      </c>
+      <c r="D431" t="n">
+        <v>127</v>
+      </c>
+      <c r="E431" t="n">
+        <v>127</v>
+      </c>
+      <c r="F431" t="n">
+        <v>22432.1645</v>
+      </c>
+      <c r="G431" t="n">
+        <v>127</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>116</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>127</v>
+      </c>
+      <c r="C432" t="n">
+        <v>127</v>
+      </c>
+      <c r="D432" t="n">
+        <v>128</v>
+      </c>
+      <c r="E432" t="n">
+        <v>127</v>
+      </c>
+      <c r="F432" t="n">
+        <v>8522.9833</v>
+      </c>
+      <c r="G432" t="n">
+        <v>127</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>116</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>128</v>
+      </c>
+      <c r="C433" t="n">
+        <v>129</v>
+      </c>
+      <c r="D433" t="n">
+        <v>129</v>
+      </c>
+      <c r="E433" t="n">
+        <v>128</v>
+      </c>
+      <c r="F433" t="n">
+        <v>30951.96</v>
+      </c>
+      <c r="G433" t="n">
+        <v>128</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>116</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>129</v>
+      </c>
+      <c r="C434" t="n">
+        <v>131</v>
+      </c>
+      <c r="D434" t="n">
+        <v>131</v>
+      </c>
+      <c r="E434" t="n">
+        <v>129</v>
+      </c>
+      <c r="F434" t="n">
+        <v>53521.17898167939</v>
+      </c>
+      <c r="G434" t="n">
+        <v>130</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>116</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>131</v>
+      </c>
+      <c r="C435" t="n">
+        <v>131</v>
+      </c>
+      <c r="D435" t="n">
+        <v>132</v>
+      </c>
+      <c r="E435" t="n">
+        <v>131</v>
+      </c>
+      <c r="F435" t="n">
+        <v>133794.5629</v>
+      </c>
+      <c r="G435" t="n">
+        <v>131</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>116</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>130</v>
+      </c>
+      <c r="C436" t="n">
+        <v>130</v>
+      </c>
+      <c r="D436" t="n">
+        <v>131</v>
+      </c>
+      <c r="E436" t="n">
+        <v>130</v>
+      </c>
+      <c r="F436" t="n">
+        <v>13430.79643846154</v>
+      </c>
+      <c r="G436" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>116</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>129</v>
+      </c>
+      <c r="C437" t="n">
+        <v>129</v>
+      </c>
+      <c r="D437" t="n">
+        <v>129</v>
+      </c>
+      <c r="E437" t="n">
+        <v>129</v>
+      </c>
+      <c r="F437" t="n">
+        <v>36860.3755</v>
+      </c>
+      <c r="G437" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>116</v>
+      </c>
+      <c r="L437" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M407" t="n">
-        <v>1.090652173913043</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>126</v>
-      </c>
-      <c r="C408" t="n">
-        <v>126</v>
-      </c>
-      <c r="D408" t="n">
-        <v>126</v>
-      </c>
-      <c r="E408" t="n">
-        <v>126</v>
-      </c>
-      <c r="F408" t="n">
-        <v>590.2307</v>
-      </c>
-      <c r="G408" t="n">
-        <v>126</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="n">
-        <v>1</v>
-      </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
-      <c r="M408" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>125</v>
-      </c>
-      <c r="C409" t="n">
-        <v>124</v>
-      </c>
-      <c r="D409" t="n">
-        <v>125</v>
-      </c>
-      <c r="E409" t="n">
-        <v>124</v>
-      </c>
-      <c r="F409" t="n">
-        <v>6215.9343</v>
-      </c>
-      <c r="G409" t="n">
-        <v>125</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="n">
-        <v>1</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
-      <c r="M409" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>124</v>
-      </c>
-      <c r="C410" t="n">
-        <v>123</v>
-      </c>
-      <c r="D410" t="n">
-        <v>124</v>
-      </c>
-      <c r="E410" t="n">
-        <v>123</v>
-      </c>
-      <c r="F410" t="n">
-        <v>45784.3859</v>
-      </c>
-      <c r="G410" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="n">
-        <v>1</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
-      <c r="M410" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>123</v>
-      </c>
-      <c r="C411" t="n">
-        <v>123</v>
-      </c>
-      <c r="D411" t="n">
-        <v>123</v>
-      </c>
-      <c r="E411" t="n">
-        <v>123</v>
-      </c>
-      <c r="F411" t="n">
-        <v>7331.2782</v>
-      </c>
-      <c r="G411" t="n">
-        <v>123</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="n">
-        <v>0</v>
-      </c>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
-      <c r="M411" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>124</v>
-      </c>
-      <c r="C412" t="n">
-        <v>124</v>
-      </c>
-      <c r="D412" t="n">
-        <v>124</v>
-      </c>
-      <c r="E412" t="n">
-        <v>124</v>
-      </c>
-      <c r="F412" t="n">
-        <v>13329.1126</v>
-      </c>
-      <c r="G412" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="n">
-        <v>0</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
-      <c r="M412" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>124</v>
-      </c>
-      <c r="C413" t="n">
-        <v>123</v>
-      </c>
-      <c r="D413" t="n">
-        <v>124</v>
-      </c>
-      <c r="E413" t="n">
-        <v>123</v>
-      </c>
-      <c r="F413" t="n">
-        <v>55.4299</v>
-      </c>
-      <c r="G413" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="n">
-        <v>0</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
-      <c r="M413" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>123</v>
-      </c>
-      <c r="C414" t="n">
-        <v>123</v>
-      </c>
-      <c r="D414" t="n">
-        <v>123</v>
-      </c>
-      <c r="E414" t="n">
-        <v>123</v>
-      </c>
-      <c r="F414" t="n">
-        <v>20511.7647</v>
-      </c>
-      <c r="G414" t="n">
-        <v>123</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="n">
-        <v>0</v>
-      </c>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
-      <c r="M414" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>122</v>
-      </c>
-      <c r="C415" t="n">
-        <v>122</v>
-      </c>
-      <c r="D415" t="n">
-        <v>122</v>
-      </c>
-      <c r="E415" t="n">
-        <v>122</v>
-      </c>
-      <c r="F415" t="n">
-        <v>343.9521</v>
-      </c>
-      <c r="G415" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="n">
-        <v>0</v>
-      </c>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
-      <c r="M415" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>122</v>
-      </c>
-      <c r="C416" t="n">
-        <v>122</v>
-      </c>
-      <c r="D416" t="n">
-        <v>122</v>
-      </c>
-      <c r="E416" t="n">
-        <v>122</v>
-      </c>
-      <c r="F416" t="n">
-        <v>14186.0267</v>
-      </c>
-      <c r="G416" t="n">
-        <v>122</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="n">
-        <v>0</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
-      <c r="M416" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>123</v>
-      </c>
-      <c r="C417" t="n">
-        <v>123</v>
-      </c>
-      <c r="D417" t="n">
-        <v>123</v>
-      </c>
-      <c r="E417" t="n">
-        <v>123</v>
-      </c>
-      <c r="F417" t="n">
-        <v>289.2562</v>
-      </c>
-      <c r="G417" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="n">
-        <v>0</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
-      <c r="M417" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>124</v>
-      </c>
-      <c r="C418" t="n">
-        <v>123</v>
-      </c>
-      <c r="D418" t="n">
-        <v>124</v>
-      </c>
-      <c r="E418" t="n">
-        <v>123</v>
-      </c>
-      <c r="F418" t="n">
-        <v>51.736</v>
-      </c>
-      <c r="G418" t="n">
-        <v>123</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="n">
-        <v>0</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
-      <c r="M418" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>124</v>
-      </c>
-      <c r="C419" t="n">
-        <v>124</v>
-      </c>
-      <c r="D419" t="n">
-        <v>124</v>
-      </c>
-      <c r="E419" t="n">
-        <v>124</v>
-      </c>
-      <c r="F419" t="n">
-        <v>5876.4937</v>
-      </c>
-      <c r="G419" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0</v>
-      </c>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
-      <c r="M419" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>124</v>
-      </c>
-      <c r="C420" t="n">
-        <v>124</v>
-      </c>
-      <c r="D420" t="n">
-        <v>124</v>
-      </c>
-      <c r="E420" t="n">
-        <v>124</v>
-      </c>
-      <c r="F420" t="n">
-        <v>40011.4364</v>
-      </c>
-      <c r="G420" t="n">
-        <v>124</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="n">
-        <v>0</v>
-      </c>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
-      <c r="M420" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>125</v>
-      </c>
-      <c r="C421" t="n">
-        <v>125</v>
-      </c>
-      <c r="D421" t="n">
-        <v>125</v>
-      </c>
-      <c r="E421" t="n">
-        <v>125</v>
-      </c>
-      <c r="F421" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G421" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="n">
-        <v>0</v>
-      </c>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>125</v>
-      </c>
-      <c r="C422" t="n">
-        <v>125</v>
-      </c>
-      <c r="D422" t="n">
-        <v>125</v>
-      </c>
-      <c r="E422" t="n">
-        <v>125</v>
-      </c>
-      <c r="F422" t="n">
-        <v>9604.096299999999</v>
-      </c>
-      <c r="G422" t="n">
-        <v>125</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="n">
-        <v>0</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
-      <c r="M422" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>125</v>
-      </c>
-      <c r="C423" t="n">
-        <v>125</v>
-      </c>
-      <c r="D423" t="n">
-        <v>125</v>
-      </c>
-      <c r="E423" t="n">
-        <v>125</v>
-      </c>
-      <c r="F423" t="n">
-        <v>22469.5709</v>
-      </c>
-      <c r="G423" t="n">
-        <v>125</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="n">
-        <v>0</v>
-      </c>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
-      <c r="M423" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>126</v>
-      </c>
-      <c r="C424" t="n">
-        <v>126</v>
-      </c>
-      <c r="D424" t="n">
-        <v>126</v>
-      </c>
-      <c r="E424" t="n">
-        <v>126</v>
-      </c>
-      <c r="F424" t="n">
-        <v>4753.6392</v>
-      </c>
-      <c r="G424" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="n">
-        <v>0</v>
-      </c>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
-      <c r="M424" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>126</v>
-      </c>
-      <c r="C425" t="n">
-        <v>126</v>
-      </c>
-      <c r="D425" t="n">
-        <v>126</v>
-      </c>
-      <c r="E425" t="n">
-        <v>126</v>
-      </c>
-      <c r="F425" t="n">
-        <v>23537.2339</v>
-      </c>
-      <c r="G425" t="n">
-        <v>126</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
-      <c r="M425" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>126</v>
-      </c>
-      <c r="C426" t="n">
-        <v>128</v>
-      </c>
-      <c r="D426" t="n">
-        <v>128</v>
-      </c>
-      <c r="E426" t="n">
-        <v>126</v>
-      </c>
-      <c r="F426" t="n">
-        <v>25547.6541</v>
-      </c>
-      <c r="G426" t="n">
-        <v>127</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="n">
-        <v>0</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
-      <c r="M426" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>128</v>
-      </c>
-      <c r="C427" t="n">
-        <v>128</v>
-      </c>
-      <c r="D427" t="n">
-        <v>128</v>
-      </c>
-      <c r="E427" t="n">
-        <v>128</v>
-      </c>
-      <c r="F427" t="n">
-        <v>17646.7117</v>
-      </c>
-      <c r="G427" t="n">
-        <v>128</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0</v>
-      </c>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
-      <c r="M427" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>129</v>
-      </c>
-      <c r="C428" t="n">
-        <v>128</v>
-      </c>
-      <c r="D428" t="n">
-        <v>129</v>
-      </c>
-      <c r="E428" t="n">
-        <v>128</v>
-      </c>
-      <c r="F428" t="n">
-        <v>32904.9711</v>
-      </c>
-      <c r="G428" t="n">
-        <v>128</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0</v>
-      </c>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
-      <c r="M428" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>129</v>
-      </c>
-      <c r="C429" t="n">
-        <v>128</v>
-      </c>
-      <c r="D429" t="n">
-        <v>129</v>
-      </c>
-      <c r="E429" t="n">
-        <v>128</v>
-      </c>
-      <c r="F429" t="n">
-        <v>13283.5619</v>
-      </c>
-      <c r="G429" t="n">
-        <v>128</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="n">
-        <v>0</v>
-      </c>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
-      <c r="M429" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>128</v>
-      </c>
-      <c r="C430" t="n">
-        <v>127</v>
-      </c>
-      <c r="D430" t="n">
-        <v>128</v>
-      </c>
-      <c r="E430" t="n">
-        <v>127</v>
-      </c>
-      <c r="F430" t="n">
-        <v>1987.7108</v>
-      </c>
-      <c r="G430" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="n">
-        <v>0</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
-      <c r="M430" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>127</v>
-      </c>
-      <c r="C431" t="n">
-        <v>127</v>
-      </c>
-      <c r="D431" t="n">
-        <v>127</v>
-      </c>
-      <c r="E431" t="n">
-        <v>127</v>
-      </c>
-      <c r="F431" t="n">
-        <v>22432.1645</v>
-      </c>
-      <c r="G431" t="n">
-        <v>127</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="n">
-        <v>0</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
-      <c r="M431" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>127</v>
-      </c>
-      <c r="C432" t="n">
-        <v>127</v>
-      </c>
-      <c r="D432" t="n">
-        <v>128</v>
-      </c>
-      <c r="E432" t="n">
-        <v>127</v>
-      </c>
-      <c r="F432" t="n">
-        <v>8522.9833</v>
-      </c>
-      <c r="G432" t="n">
-        <v>127</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="n">
-        <v>0</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
-      <c r="M432" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>128</v>
-      </c>
-      <c r="C433" t="n">
-        <v>129</v>
-      </c>
-      <c r="D433" t="n">
-        <v>129</v>
-      </c>
-      <c r="E433" t="n">
-        <v>128</v>
-      </c>
-      <c r="F433" t="n">
-        <v>30951.96</v>
-      </c>
-      <c r="G433" t="n">
-        <v>128</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="n">
-        <v>0</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
-      <c r="M433" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>129</v>
-      </c>
-      <c r="C434" t="n">
-        <v>131</v>
-      </c>
-      <c r="D434" t="n">
-        <v>131</v>
-      </c>
-      <c r="E434" t="n">
-        <v>129</v>
-      </c>
-      <c r="F434" t="n">
-        <v>53521.17898167939</v>
-      </c>
-      <c r="G434" t="n">
-        <v>130</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="n">
-        <v>0</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
-      <c r="M434" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>131</v>
-      </c>
-      <c r="C435" t="n">
-        <v>131</v>
-      </c>
-      <c r="D435" t="n">
-        <v>132</v>
-      </c>
-      <c r="E435" t="n">
-        <v>131</v>
-      </c>
-      <c r="F435" t="n">
-        <v>133794.5629</v>
-      </c>
-      <c r="G435" t="n">
-        <v>131</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="n">
-        <v>0</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
-      <c r="M435" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>130</v>
-      </c>
-      <c r="C436" t="n">
-        <v>130</v>
-      </c>
-      <c r="D436" t="n">
-        <v>131</v>
-      </c>
-      <c r="E436" t="n">
-        <v>130</v>
-      </c>
-      <c r="F436" t="n">
-        <v>13430.79643846154</v>
-      </c>
-      <c r="G436" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="n">
-        <v>0</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
-      <c r="M436" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>129</v>
-      </c>
-      <c r="C437" t="n">
-        <v>129</v>
-      </c>
-      <c r="D437" t="n">
-        <v>129</v>
-      </c>
-      <c r="E437" t="n">
-        <v>129</v>
-      </c>
-      <c r="F437" t="n">
-        <v>36860.3755</v>
-      </c>
-      <c r="G437" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="n">
-        <v>0</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
-        <v>1</v>
+        <v>1.107068965517241</v>
       </c>
     </row>
     <row r="438">
@@ -16318,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
@@ -16528,7 +16642,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
@@ -16563,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>

--- a/BackTest/2019-11-21 BackTest FCT.xlsx
+++ b/BackTest/2019-11-21 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-123167.7297344828</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-123135.3913689655</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>115</v>
-      </c>
-      <c r="J3" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-123150.3913689655</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>116</v>
-      </c>
-      <c r="J4" t="n">
-        <v>115</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-123145.3913689655</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115</v>
-      </c>
-      <c r="J5" t="n">
-        <v>115</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-123145.3913689655</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>117</v>
-      </c>
-      <c r="J6" t="n">
-        <v>115</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-115126.7652689655</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117</v>
-      </c>
-      <c r="J7" t="n">
-        <v>115</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-115126.7652689655</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>118</v>
-      </c>
-      <c r="J8" t="n">
-        <v>115</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-111676.4322689655</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>118</v>
-      </c>
-      <c r="J9" t="n">
-        <v>115</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>-111689.3415689655</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>119</v>
-      </c>
-      <c r="J10" t="n">
-        <v>115</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -811,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>115</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -850,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>115</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -889,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>115</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -928,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>115</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -967,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>115</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1006,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>115</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>115</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>115</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>115</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1162,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>115</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>115</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1240,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>115</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>115</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1318,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>115</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1357,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>115</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>115</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1435,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>115</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>115</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1513,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>115</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>115</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>115</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>115</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>115</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1705,23 +1507,15 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>115</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.08195652173913</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2109,7 +1903,7 @@
         <v>160665.7573310345</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2208,7 +2002,7 @@
         <v>155905.6679310345</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2241,7 +2035,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2274,7 +2068,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2307,7 +2101,7 @@
         <v>153167.6466310346</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2373,7 +2167,7 @@
         <v>197726.6639310345</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2406,7 +2200,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2472,7 +2266,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2505,7 +2299,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2538,7 +2332,7 @@
         <v>197971.6190310346</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2967,7 +2761,7 @@
         <v>200445.0804310346</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3033,7 +2827,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3099,7 +2893,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3132,7 +2926,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3165,7 +2959,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3198,7 +2992,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3231,7 +3025,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3264,7 +3058,7 @@
         <v>150072.8196310346</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3297,7 +3091,7 @@
         <v>145091.7831923249</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3330,7 +3124,7 @@
         <v>151937.6713536152</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3363,7 +3157,7 @@
         <v>151937.6713536152</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3396,7 +3190,7 @@
         <v>151937.6713536152</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3429,7 +3223,7 @@
         <v>173156.7207536152</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3462,7 +3256,7 @@
         <v>216742.2873536152</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3495,7 +3289,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3528,7 +3322,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3561,7 +3355,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3594,7 +3388,7 @@
         <v>203016.3528536152</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3627,7 +3421,7 @@
         <v>187669.2342536152</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3660,7 +3454,7 @@
         <v>187957.2342536152</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3693,7 +3487,7 @@
         <v>187726.7207536152</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3726,7 +3520,7 @@
         <v>187726.7207536152</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3759,7 +3553,7 @@
         <v>187814.7207536152</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3792,7 +3586,7 @@
         <v>158555.4124536152</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3825,7 +3619,7 @@
         <v>163682.5965536152</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4089,7 +3883,7 @@
         <v>133304.8105536152</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4122,7 +3916,7 @@
         <v>133304.8105536152</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4155,7 +3949,7 @@
         <v>148414.0013536153</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4188,7 +3982,7 @@
         <v>148409.8194536153</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4221,7 +4015,7 @@
         <v>148414.8194536153</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4254,7 +4048,7 @@
         <v>108605.1640536153</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4287,7 +4081,7 @@
         <v>114573.2200536153</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4320,7 +4114,7 @@
         <v>114573.2200536153</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4353,7 +4147,7 @@
         <v>88423.83705361525</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4386,7 +4180,7 @@
         <v>88423.83705361525</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4419,7 +4213,7 @@
         <v>97226.65255361525</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4452,7 +4246,7 @@
         <v>96968.03675361525</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4485,7 +4279,7 @@
         <v>96968.03675361525</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4518,7 +4312,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4551,7 +4345,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4584,7 +4378,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4617,7 +4411,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4650,7 +4444,7 @@
         <v>71646.87005361525</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4683,7 +4477,7 @@
         <v>16081.20025361524</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4716,7 +4510,7 @@
         <v>-24524.27674638476</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4749,7 +4543,7 @@
         <v>-24524.27674638476</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4782,7 +4576,7 @@
         <v>-24519.27674638476</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4815,7 +4609,7 @@
         <v>-24514.34354638476</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4848,7 +4642,7 @@
         <v>-27205.36454638476</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4881,7 +4675,7 @@
         <v>-21906.95244638476</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4914,7 +4708,7 @@
         <v>-21906.95244638476</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4947,7 +4741,7 @@
         <v>-21906.95244638476</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4980,7 +4774,7 @@
         <v>-23034.78744638475</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5013,7 +4807,7 @@
         <v>-23034.78744638475</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5112,7 +4906,7 @@
         <v>-23329.78744638475</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -13065,10 +12859,14 @@
         <v>-810027.0788247184</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>115</v>
+      </c>
+      <c r="J378" t="n">
+        <v>115</v>
+      </c>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
@@ -13098,11 +12896,19 @@
         <v>-828240.3208247183</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>116</v>
+      </c>
+      <c r="J379" t="n">
+        <v>115</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13131,11 +12937,19 @@
         <v>-828240.3208247183</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>115</v>
+      </c>
+      <c r="J380" t="n">
+        <v>115</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13164,11 +12978,19 @@
         <v>-804933.3033247184</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>115</v>
+      </c>
+      <c r="J381" t="n">
+        <v>115</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13197,11 +13019,19 @@
         <v>-804933.3033247184</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>116</v>
+      </c>
+      <c r="J382" t="n">
+        <v>115</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +13060,19 @@
         <v>-804833.3033247184</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>116</v>
+      </c>
+      <c r="J383" t="n">
+        <v>115</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13263,11 +13101,19 @@
         <v>-804833.3033247184</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>117</v>
+      </c>
+      <c r="J384" t="n">
+        <v>115</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13296,11 +13142,19 @@
         <v>-804833.3033247184</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>117</v>
+      </c>
+      <c r="J385" t="n">
+        <v>115</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +13183,19 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>117</v>
+      </c>
+      <c r="J386" t="n">
+        <v>115</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +13224,19 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>116</v>
+      </c>
+      <c r="J387" t="n">
+        <v>115</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +13265,19 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>116</v>
+      </c>
+      <c r="J388" t="n">
+        <v>115</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13428,11 +13306,19 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>116</v>
+      </c>
+      <c r="J389" t="n">
+        <v>115</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13461,11 +13347,19 @@
         <v>-805346.9689247183</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>116</v>
+      </c>
+      <c r="J390" t="n">
+        <v>115</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13494,11 +13388,19 @@
         <v>-805346.9689247183</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>115</v>
+      </c>
+      <c r="J391" t="n">
+        <v>115</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +13429,7 @@
         <v>-805339.7423247183</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>115</v>
@@ -13535,7 +13437,11 @@
       <c r="J392" t="n">
         <v>115</v>
       </c>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13564,15 +13470,17 @@
         <v>-805339.7423247183</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>117</v>
+      </c>
       <c r="J393" t="n">
         <v>115</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L393" t="n">
@@ -13603,15 +13511,17 @@
         <v>-805350.3423247183</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>117</v>
+      </c>
       <c r="J394" t="n">
         <v>115</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L394" t="n">
@@ -13642,15 +13552,19 @@
         <v>-805345.3423247183</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>116</v>
       </c>
       <c r="J395" t="n">
-        <v>116</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13679,15 +13593,17 @@
         <v>-805735.6524247183</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>117</v>
+      </c>
       <c r="J396" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13718,15 +13634,17 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>116</v>
+      </c>
       <c r="J397" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13757,11 +13675,19 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>117</v>
+      </c>
+      <c r="J398" t="n">
+        <v>115</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13790,11 +13716,19 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>117</v>
+      </c>
+      <c r="J399" t="n">
+        <v>115</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13823,11 +13757,19 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>118</v>
+      </c>
+      <c r="J400" t="n">
+        <v>115</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13856,11 +13798,19 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>118</v>
+      </c>
+      <c r="J401" t="n">
+        <v>115</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13889,11 +13839,19 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>118</v>
+      </c>
+      <c r="J402" t="n">
+        <v>115</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13922,11 +13880,19 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>118</v>
+      </c>
+      <c r="J403" t="n">
+        <v>115</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13955,11 +13921,19 @@
         <v>-809322.3161247183</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>118</v>
+      </c>
+      <c r="J404" t="n">
+        <v>115</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13988,11 +13962,19 @@
         <v>-809312.1787247183</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>116</v>
+      </c>
+      <c r="J405" t="n">
+        <v>115</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14021,11 +14003,19 @@
         <v>-802239.1933247183</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>118</v>
+      </c>
+      <c r="J406" t="n">
+        <v>115</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14057,8 +14047,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>115</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14090,8 +14086,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>115</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14120,11 +14122,19 @@
         <v>-819685.1933247183</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>118</v>
+      </c>
+      <c r="J409" t="n">
+        <v>115</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14156,8 +14166,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>115</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14189,8 +14205,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>115</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14222,8 +14244,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>115</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14255,8 +14283,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>115</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14288,8 +14322,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>115</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14321,8 +14361,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>115</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14354,8 +14400,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>115</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14387,8 +14439,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>115</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14420,8 +14478,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>115</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14453,8 +14517,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>115</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14486,8 +14556,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>115</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14519,8 +14595,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>115</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14552,8 +14634,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>115</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14585,8 +14673,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>115</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14615,11 +14709,19 @@
         <v>-718081.5432247183</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>121</v>
+      </c>
+      <c r="J424" t="n">
+        <v>115</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14651,8 +14753,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>115</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14684,8 +14792,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>115</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14717,8 +14831,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>115</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14750,8 +14870,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>115</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14783,8 +14909,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>115</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14813,11 +14945,19 @@
         <v>-715638.6872247183</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>121</v>
+      </c>
+      <c r="J430" t="n">
+        <v>115</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14849,8 +14989,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>115</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14882,8 +15028,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>115</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14915,8 +15067,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>115</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14948,8 +15106,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>115</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14981,8 +15145,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>115</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15011,11 +15181,19 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>121</v>
+      </c>
+      <c r="J436" t="n">
+        <v>115</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15044,11 +15222,19 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>121</v>
+      </c>
+      <c r="J437" t="n">
+        <v>115</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15077,11 +15263,19 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>121</v>
+      </c>
+      <c r="J438" t="n">
+        <v>115</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15110,11 +15304,19 @@
         <v>-690925.7702902921</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>121</v>
+      </c>
+      <c r="J439" t="n">
+        <v>115</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15143,11 +15345,19 @@
         <v>-690925.7702902921</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>122</v>
+      </c>
+      <c r="J440" t="n">
+        <v>115</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15179,8 +15389,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>115</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15212,8 +15428,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>115</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15245,8 +15467,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>115</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15278,8 +15506,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>115</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15311,8 +15545,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>115</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15344,8 +15584,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>115</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15377,8 +15623,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>115</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15410,8 +15662,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>115</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15443,8 +15701,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>115</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15476,8 +15740,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>115</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15509,8 +15779,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>115</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15542,8 +15818,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>115</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15575,8 +15857,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>115</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15608,8 +15896,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>115</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15641,8 +15935,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>115</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15674,8 +15974,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>115</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15707,8 +16013,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>115</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15740,8 +16052,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>115</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15770,11 +16088,17 @@
         <v>-646834.0489902922</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>115</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15806,8 +16130,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>115</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15839,8 +16169,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>115</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15869,11 +16205,17 @@
         <v>-611151.1333902923</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>115</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15902,11 +16244,17 @@
         <v>-647288.0977902922</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>115</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15935,11 +16283,17 @@
         <v>-633937.4854902922</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>115</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15968,11 +16322,17 @@
         <v>-635093.1950902921</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>115</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16001,11 +16361,17 @@
         <v>-635093.1950902921</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>115</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16034,11 +16400,17 @@
         <v>-635093.1950902921</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>115</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16067,11 +16439,17 @@
         <v>-641309.1293902921</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>115</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16100,11 +16478,17 @@
         <v>-687093.5152902921</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>115</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16136,8 +16520,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>115</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16169,8 +16559,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>115</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16202,8 +16598,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>115</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16235,8 +16637,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>115</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16268,8 +16676,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>115</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16301,8 +16715,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>115</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16334,8 +16754,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>115</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16367,8 +16793,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>115</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16400,8 +16832,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>115</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16433,8 +16871,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>115</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16466,8 +16910,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>115</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16499,8 +16949,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>115</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16532,8 +16988,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>115</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16565,8 +17027,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>115</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16598,8 +17066,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>115</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16631,8 +17105,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>115</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16664,8 +17144,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>115</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16697,8 +17183,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>115</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16730,8 +17222,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>115</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16763,8 +17261,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>115</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16796,8 +17300,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>115</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16829,8 +17339,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>115</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16862,8 +17378,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>115</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16895,8 +17417,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>115</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16928,8 +17456,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>115</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16961,8 +17495,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>115</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16991,11 +17531,17 @@
         <v>-598502.4852470743</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>115</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17027,8 +17573,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>115</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17060,8 +17612,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>115</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17090,11 +17648,17 @@
         <v>-556676.6818989827</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>115</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17123,11 +17687,17 @@
         <v>-556676.6818989827</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>115</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17156,11 +17726,17 @@
         <v>-540407.9542989827</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>115</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17192,8 +17768,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>115</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17225,8 +17807,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>115</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17255,11 +17843,17 @@
         <v>-629636.4408470743</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>115</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17288,11 +17882,17 @@
         <v>-663858.6067470743</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>115</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17321,11 +17921,17 @@
         <v>-671768.3948287537</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>115</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17354,11 +17960,17 @@
         <v>-657883.0946287536</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>115</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17390,8 +18002,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>115</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17423,8 +18041,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>115</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17453,11 +18077,17 @@
         <v>-563114.6536768451</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>115</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17489,8 +18119,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>115</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17522,8 +18158,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>115</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17555,8 +18197,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>115</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17588,8 +18236,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>115</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17621,8 +18275,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>115</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17654,8 +18314,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>115</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17687,8 +18353,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>115</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17720,8 +18392,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>115</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17753,8 +18431,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>115</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17786,8 +18470,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>115</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17819,8 +18509,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>115</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17852,8 +18548,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>115</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17885,8 +18587,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>115</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17918,8 +18626,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>115</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17951,8 +18665,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>115</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17984,8 +18704,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>115</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18017,8 +18743,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>115</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18050,8 +18782,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>115</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18083,8 +18821,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>115</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18116,8 +18860,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>115</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18149,8 +18899,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>115</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18182,8 +18938,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>115</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18212,15 +18974,23 @@
         <v>-665816.667812679</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>115</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
+        <v>1.10804347826087</v>
+      </c>
+      <c r="M533" t="n">
+        <v>1.11304347826087</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -18377,7 +19147,7 @@
         <v>-658118.394612679</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18872,7 +19642,7 @@
         <v>-667169.871612679</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18905,7 +19675,7 @@
         <v>-667182.871612679</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19114,6 +19884,6 @@
       <c r="M560" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest FCT.xlsx
+++ b/BackTest/2019-11-21 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,7 +1144,7 @@
         <v>74054.74963103446</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>205294.5718310345</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>144863.5618310345</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>117599.2109310345</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>133911.8557310345</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>183707.6923310345</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>136512.4385310345</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>160507.2113310345</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>162148.7861310345</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>162138.7861310345</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>152890.6365310345</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>165510.1738310345</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>177686.5458310345</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>201774.9455310346</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>208979.7759310346</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>208984.7759310346</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>147441.2215310346</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>150072.8196310346</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>145091.7831923249</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>151937.6713536152</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>151937.6713536152</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>151937.6713536152</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>173156.7207536152</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>216742.2873536152</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>203016.3528536152</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>187669.2342536152</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>133304.8105536152</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>133304.8105536152</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>148414.0013536153</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>148409.8194536153</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>148414.8194536153</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>108605.1640536153</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>114573.2200536153</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>114573.2200536153</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>88423.83705361525</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>88423.83705361525</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>97226.65255361525</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>96968.03675361525</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>96968.03675361525</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>80614.92605361524</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>71646.87005361525</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>16081.20025361524</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-24524.27674638476</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-24524.27674638476</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-24519.27674638476</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-24514.34354638476</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-27205.36454638476</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-21906.95244638476</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-21906.95244638476</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-21906.95244638476</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-23034.78744638475</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-23034.78744638475</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-23329.78744638475</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -13142,11 +13142,9 @@
         <v>-804833.3033247184</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>115</v>
       </c>
@@ -13183,11 +13181,9 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>115</v>
       </c>
@@ -13470,11 +13466,9 @@
         <v>-805339.7423247183</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>115</v>
       </c>
@@ -13511,11 +13505,9 @@
         <v>-805350.3423247183</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>115</v>
       </c>
@@ -13552,11 +13544,9 @@
         <v>-805345.3423247183</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>115</v>
       </c>
@@ -13593,11 +13583,9 @@
         <v>-805735.6524247183</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
         <v>115</v>
       </c>
@@ -13634,11 +13622,9 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
         <v>115</v>
       </c>
@@ -13675,11 +13661,9 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
         <v>115</v>
       </c>
@@ -13716,11 +13700,9 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
         <v>115</v>
       </c>
@@ -13757,11 +13739,9 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>115</v>
       </c>
@@ -13798,11 +13778,9 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>115</v>
       </c>
@@ -13839,11 +13817,9 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>115</v>
       </c>
@@ -13880,11 +13856,9 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
         <v>115</v>
       </c>
@@ -13921,11 +13895,9 @@
         <v>-809322.3161247183</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
         <v>115</v>
       </c>
@@ -13962,11 +13934,9 @@
         <v>-809312.1787247183</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
         <v>115</v>
       </c>
@@ -14003,11 +13973,9 @@
         <v>-802239.1933247183</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
         <v>115</v>
       </c>
@@ -14122,11 +14090,9 @@
         <v>-819685.1933247183</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
         <v>115</v>
       </c>
@@ -14709,11 +14675,9 @@
         <v>-718081.5432247183</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
         <v>115</v>
       </c>
@@ -14945,11 +14909,9 @@
         <v>-715638.6872247183</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
         <v>115</v>
       </c>
@@ -15181,11 +15143,9 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
         <v>115</v>
       </c>
@@ -15222,11 +15182,9 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
         <v>115</v>
       </c>
@@ -15263,11 +15221,9 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
         <v>115</v>
       </c>
@@ -15304,11 +15260,9 @@
         <v>-690925.7702902921</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
         <v>115</v>
       </c>
@@ -15345,11 +15299,9 @@
         <v>-690925.7702902921</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
         <v>115</v>
       </c>
@@ -15659,7 +15611,7 @@
         <v>-690836.4097902921</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
@@ -15667,13 +15619,15 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
+        <v>1.064565217391304</v>
+      </c>
+      <c r="M448" t="n">
+        <v>1.11304347826087</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -15698,17 +15652,11 @@
         <v>-690832.3097902922</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>115</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15737,17 +15685,11 @@
         <v>-690832.3097902922</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>115</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15776,17 +15718,11 @@
         <v>-660720.8299902922</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>115</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15815,17 +15751,11 @@
         <v>-662274.6971902922</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>115</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15854,17 +15784,11 @@
         <v>-662274.6971902922</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>115</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15893,17 +15817,11 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>115</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15932,17 +15850,11 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>115</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15971,17 +15883,11 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>115</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16010,17 +15916,11 @@
         <v>-646384.0489902922</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>115</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16049,17 +15949,11 @@
         <v>-646384.0489902922</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>115</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16091,14 +15985,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>115</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16127,17 +16015,11 @@
         <v>-617756.1333902923</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>115</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16169,14 +16051,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>115</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16208,14 +16084,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>115</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16247,14 +16117,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>115</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16286,14 +16150,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>115</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16325,14 +16183,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>115</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16364,14 +16216,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>115</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16403,14 +16249,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>115</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16442,14 +16282,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>115</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16481,14 +16315,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>115</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16520,14 +16348,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>115</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16559,14 +16381,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>115</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16598,14 +16414,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>115</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16637,14 +16447,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>115</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16676,14 +16480,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>115</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16715,14 +16513,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>115</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16754,14 +16546,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>115</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16793,14 +16579,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>115</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16832,14 +16612,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>115</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16871,14 +16645,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>115</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16910,14 +16678,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>115</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16949,14 +16711,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>115</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16988,14 +16744,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>115</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17027,14 +16777,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>115</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17066,14 +16810,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>115</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17105,14 +16843,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>115</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17144,14 +16876,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>115</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17183,14 +16909,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>115</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17222,14 +16942,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>115</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17261,14 +16975,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>115</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17300,14 +17008,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>115</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17339,14 +17041,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>115</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17378,14 +17074,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>115</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17417,14 +17107,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>115</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17456,14 +17140,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>115</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17495,14 +17173,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>115</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17534,14 +17206,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>115</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17573,14 +17239,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>115</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17612,14 +17272,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>115</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17651,14 +17305,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>115</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17690,14 +17338,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>115</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17729,14 +17371,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>115</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17768,14 +17404,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>115</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17807,14 +17437,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>115</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17846,14 +17470,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>115</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17885,14 +17503,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>115</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17924,14 +17536,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>115</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17963,14 +17569,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>115</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18002,14 +17602,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>115</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18041,14 +17635,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>115</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18080,14 +17668,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>115</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18119,14 +17701,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>115</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18158,14 +17734,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>115</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18197,14 +17767,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>115</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18236,14 +17800,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>115</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18275,14 +17833,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>115</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18314,14 +17866,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>115</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18353,14 +17899,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>115</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18392,14 +17932,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>115</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18431,14 +17965,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>115</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18470,14 +17998,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>115</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18509,14 +18031,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>115</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18548,14 +18064,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>115</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18587,14 +18097,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>115</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18626,14 +18130,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>115</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18665,14 +18163,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>115</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18704,14 +18196,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>115</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18743,14 +18229,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>115</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18782,14 +18262,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>115</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18821,14 +18295,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>115</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18860,14 +18328,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>115</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18899,14 +18361,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>115</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18938,14 +18394,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>115</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18974,23 +18424,15 @@
         <v>-665816.667812679</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>115</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
-        <v>1.10804347826087</v>
-      </c>
-      <c r="M533" t="n">
-        <v>1.11304347826087</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -19884,6 +19326,6 @@
       <c r="M560" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest FCT.xlsx
+++ b/BackTest/2019-11-21 BackTest FCT.xlsx
@@ -1144,7 +1144,7 @@
         <v>74054.74963103446</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>205294.5718310345</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>144863.5618310345</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>117599.2109310345</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>133911.8557310345</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>183707.6923310345</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>136512.4385310345</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>160507.2113310345</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>162148.7861310345</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>162138.7861310345</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>152890.6365310345</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>165510.1738310345</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>160665.7573310345</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>155905.6679310345</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>153167.6466310346</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>177686.5458310345</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>197726.6639310345</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>197971.6190310346</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>201774.9455310346</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>208979.7759310346</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>208984.7759310346</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -12859,14 +12859,10 @@
         <v>-810027.0788247184</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>115</v>
-      </c>
-      <c r="J378" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
@@ -12902,13 +12898,9 @@
         <v>116</v>
       </c>
       <c r="J379" t="n">
-        <v>115</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12943,7 +12935,7 @@
         <v>115</v>
       </c>
       <c r="J380" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -12984,7 +12976,7 @@
         <v>115</v>
       </c>
       <c r="J381" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13025,7 +13017,7 @@
         <v>116</v>
       </c>
       <c r="J382" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13066,7 +13058,7 @@
         <v>116</v>
       </c>
       <c r="J383" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13107,7 +13099,7 @@
         <v>117</v>
       </c>
       <c r="J384" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13142,11 +13134,13 @@
         <v>-804833.3033247184</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>117</v>
+      </c>
       <c r="J385" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13181,11 +13175,13 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>117</v>
+      </c>
       <c r="J386" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13226,7 +13222,7 @@
         <v>116</v>
       </c>
       <c r="J387" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13267,7 +13263,7 @@
         <v>116</v>
       </c>
       <c r="J388" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13308,7 +13304,7 @@
         <v>116</v>
       </c>
       <c r="J389" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13349,7 +13345,7 @@
         <v>116</v>
       </c>
       <c r="J390" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13390,7 +13386,7 @@
         <v>115</v>
       </c>
       <c r="J391" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13431,7 +13427,7 @@
         <v>115</v>
       </c>
       <c r="J392" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13466,11 +13462,13 @@
         <v>-805339.7423247183</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>117</v>
+      </c>
       <c r="J393" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13505,11 +13503,13 @@
         <v>-805350.3423247183</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>117</v>
+      </c>
       <c r="J394" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13544,11 +13544,13 @@
         <v>-805345.3423247183</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>116</v>
+      </c>
       <c r="J395" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13583,11 +13585,13 @@
         <v>-805735.6524247183</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>117</v>
+      </c>
       <c r="J396" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13622,11 +13626,13 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>116</v>
+      </c>
       <c r="J397" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13661,11 +13667,13 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>117</v>
+      </c>
       <c r="J398" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13700,11 +13708,13 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>117</v>
+      </c>
       <c r="J399" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13739,11 +13749,13 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>118</v>
+      </c>
       <c r="J400" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13778,11 +13790,13 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>118</v>
+      </c>
       <c r="J401" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13817,11 +13831,13 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>118</v>
+      </c>
       <c r="J402" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13856,11 +13872,13 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>118</v>
+      </c>
       <c r="J403" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -13899,7 +13917,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -13934,11 +13952,13 @@
         <v>-809312.1787247183</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>116</v>
+      </c>
       <c r="J405" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -13973,11 +13993,13 @@
         <v>-802239.1933247183</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>118</v>
+      </c>
       <c r="J406" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14016,7 +14038,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14055,7 +14077,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14090,11 +14112,13 @@
         <v>-819685.1933247183</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>118</v>
+      </c>
       <c r="J409" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14129,11 +14153,13 @@
         <v>-796295.4653247183</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>118</v>
+      </c>
       <c r="J410" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14168,11 +14194,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>119</v>
+      </c>
       <c r="J411" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14207,11 +14235,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>120</v>
+      </c>
       <c r="J412" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14246,11 +14276,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>120</v>
+      </c>
       <c r="J413" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14285,11 +14317,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>120</v>
+      </c>
       <c r="J414" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14324,11 +14358,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>120</v>
+      </c>
       <c r="J415" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14363,11 +14399,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>120</v>
+      </c>
       <c r="J416" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14402,11 +14440,13 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>120</v>
+      </c>
       <c r="J417" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14441,11 +14481,13 @@
         <v>-797913.2539247182</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>120</v>
+      </c>
       <c r="J418" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14480,11 +14522,13 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>119</v>
+      </c>
       <c r="J419" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14519,11 +14563,13 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>120</v>
+      </c>
       <c r="J420" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14558,11 +14604,13 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>120</v>
+      </c>
       <c r="J421" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14597,11 +14645,13 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>120</v>
+      </c>
       <c r="J422" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14636,11 +14686,13 @@
         <v>-757170.3745247183</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>120</v>
+      </c>
       <c r="J423" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14675,11 +14727,13 @@
         <v>-718081.5432247183</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>121</v>
+      </c>
       <c r="J424" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14714,11 +14768,13 @@
         <v>-703950.0953247183</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>122</v>
+      </c>
       <c r="J425" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14757,7 +14813,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14792,11 +14848,13 @@
         <v>-713770.0954247182</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>122</v>
+      </c>
       <c r="J427" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14835,7 +14893,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14870,11 +14928,13 @@
         <v>-716754.2648247182</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>121</v>
+      </c>
       <c r="J429" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14909,11 +14969,13 @@
         <v>-715638.6872247183</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>121</v>
+      </c>
       <c r="J430" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14948,11 +15010,13 @@
         <v>-715638.6872247183</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>122</v>
+      </c>
       <c r="J431" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14991,7 +15055,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15026,11 +15090,13 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>122</v>
+      </c>
       <c r="J433" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15069,7 +15135,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15108,7 +15174,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15147,7 +15213,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15186,7 +15252,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15225,7 +15291,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15264,7 +15330,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15303,7 +15369,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15342,7 +15408,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15381,7 +15447,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15420,7 +15486,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15459,7 +15525,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15498,7 +15564,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15537,7 +15603,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15576,7 +15642,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15611,1574 +15677,1856 @@
         <v>-690836.4097902921</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>124</v>
+      </c>
+      <c r="C449" t="n">
+        <v>124</v>
+      </c>
+      <c r="D449" t="n">
+        <v>124</v>
+      </c>
+      <c r="E449" t="n">
+        <v>124</v>
+      </c>
+      <c r="F449" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-690832.3097902922</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>116</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>124</v>
+      </c>
+      <c r="C450" t="n">
+        <v>124</v>
+      </c>
+      <c r="D450" t="n">
+        <v>124</v>
+      </c>
+      <c r="E450" t="n">
+        <v>124</v>
+      </c>
+      <c r="F450" t="n">
+        <v>22169.218</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-690832.3097902922</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>116</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>124</v>
+      </c>
+      <c r="C451" t="n">
+        <v>125</v>
+      </c>
+      <c r="D451" t="n">
+        <v>125</v>
+      </c>
+      <c r="E451" t="n">
+        <v>124</v>
+      </c>
+      <c r="F451" t="n">
+        <v>30111.4798</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-660720.8299902922</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>116</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>123</v>
+      </c>
+      <c r="C452" t="n">
+        <v>124</v>
+      </c>
+      <c r="D452" t="n">
+        <v>124</v>
+      </c>
+      <c r="E452" t="n">
+        <v>123</v>
+      </c>
+      <c r="F452" t="n">
+        <v>1553.8672</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-662274.6971902922</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>116</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>124</v>
+      </c>
+      <c r="C453" t="n">
+        <v>124</v>
+      </c>
+      <c r="D453" t="n">
+        <v>124</v>
+      </c>
+      <c r="E453" t="n">
+        <v>124</v>
+      </c>
+      <c r="F453" t="n">
+        <v>11557.7195</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-662274.6971902922</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>116</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>125</v>
+      </c>
+      <c r="C454" t="n">
+        <v>125</v>
+      </c>
+      <c r="D454" t="n">
+        <v>125</v>
+      </c>
+      <c r="E454" t="n">
+        <v>124</v>
+      </c>
+      <c r="F454" t="n">
+        <v>57.2217</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-662217.4754902922</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>116</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>125</v>
+      </c>
+      <c r="C455" t="n">
+        <v>125</v>
+      </c>
+      <c r="D455" t="n">
+        <v>125</v>
+      </c>
+      <c r="E455" t="n">
+        <v>125</v>
+      </c>
+      <c r="F455" t="n">
+        <v>35.3799</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-662217.4754902922</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>116</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>125</v>
+      </c>
+      <c r="C456" t="n">
+        <v>125</v>
+      </c>
+      <c r="D456" t="n">
+        <v>125</v>
+      </c>
+      <c r="E456" t="n">
+        <v>125</v>
+      </c>
+      <c r="F456" t="n">
+        <v>23594.5937</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-662217.4754902922</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>116</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>125</v>
+      </c>
+      <c r="C457" t="n">
+        <v>126</v>
+      </c>
+      <c r="D457" t="n">
+        <v>126</v>
+      </c>
+      <c r="E457" t="n">
+        <v>125</v>
+      </c>
+      <c r="F457" t="n">
+        <v>15833.4265</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-646384.0489902922</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>116</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>126</v>
+      </c>
+      <c r="C458" t="n">
+        <v>126</v>
+      </c>
+      <c r="D458" t="n">
+        <v>126</v>
+      </c>
+      <c r="E458" t="n">
+        <v>126</v>
+      </c>
+      <c r="F458" t="n">
+        <v>13.6033</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-646384.0489902922</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>116</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>125</v>
+      </c>
+      <c r="C459" t="n">
+        <v>125</v>
+      </c>
+      <c r="D459" t="n">
+        <v>125</v>
+      </c>
+      <c r="E459" t="n">
+        <v>125</v>
+      </c>
+      <c r="F459" t="n">
+        <v>450</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-646834.0489902922</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>116</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>126</v>
+      </c>
+      <c r="C460" t="n">
+        <v>126</v>
+      </c>
+      <c r="D460" t="n">
+        <v>126</v>
+      </c>
+      <c r="E460" t="n">
+        <v>126</v>
+      </c>
+      <c r="F460" t="n">
+        <v>29077.9156</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-617756.1333902923</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>116</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>126</v>
+      </c>
+      <c r="C461" t="n">
+        <v>127</v>
+      </c>
+      <c r="D461" t="n">
+        <v>127</v>
+      </c>
+      <c r="E461" t="n">
+        <v>126</v>
+      </c>
+      <c r="F461" t="n">
+        <v>6605</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-611151.1333902923</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>116</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>127</v>
+      </c>
+      <c r="C462" t="n">
+        <v>127</v>
+      </c>
+      <c r="D462" t="n">
+        <v>127</v>
+      </c>
+      <c r="E462" t="n">
+        <v>127</v>
+      </c>
+      <c r="F462" t="n">
+        <v>26898.267</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-611151.1333902923</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>116</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>127</v>
+      </c>
+      <c r="C463" t="n">
+        <v>126</v>
+      </c>
+      <c r="D463" t="n">
+        <v>127</v>
+      </c>
+      <c r="E463" t="n">
+        <v>126</v>
+      </c>
+      <c r="F463" t="n">
+        <v>36136.9644</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-647288.0977902922</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>116</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>126</v>
+      </c>
+      <c r="C464" t="n">
+        <v>127</v>
+      </c>
+      <c r="D464" t="n">
+        <v>127</v>
+      </c>
+      <c r="E464" t="n">
+        <v>126</v>
+      </c>
+      <c r="F464" t="n">
+        <v>13350.6123</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-633937.4854902922</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>116</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>126</v>
+      </c>
+      <c r="C465" t="n">
+        <v>126</v>
+      </c>
+      <c r="D465" t="n">
+        <v>126</v>
+      </c>
+      <c r="E465" t="n">
+        <v>126</v>
+      </c>
+      <c r="F465" t="n">
+        <v>1155.7096</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-635093.1950902921</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>116</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>126</v>
+      </c>
+      <c r="C466" t="n">
+        <v>126</v>
+      </c>
+      <c r="D466" t="n">
+        <v>127</v>
+      </c>
+      <c r="E466" t="n">
+        <v>126</v>
+      </c>
+      <c r="F466" t="n">
+        <v>891.8062992125984</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-635093.1950902921</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>116</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>126</v>
+      </c>
+      <c r="C467" t="n">
+        <v>126</v>
+      </c>
+      <c r="D467" t="n">
+        <v>126</v>
+      </c>
+      <c r="E467" t="n">
+        <v>126</v>
+      </c>
+      <c r="F467" t="n">
+        <v>590.2307</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-635093.1950902921</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>116</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>125</v>
+      </c>
+      <c r="C468" t="n">
+        <v>124</v>
+      </c>
+      <c r="D468" t="n">
+        <v>125</v>
+      </c>
+      <c r="E468" t="n">
+        <v>124</v>
+      </c>
+      <c r="F468" t="n">
+        <v>6215.9343</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-641309.1293902921</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>116</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>124</v>
+      </c>
+      <c r="C469" t="n">
+        <v>123</v>
+      </c>
+      <c r="D469" t="n">
+        <v>124</v>
+      </c>
+      <c r="E469" t="n">
+        <v>123</v>
+      </c>
+      <c r="F469" t="n">
+        <v>45784.3859</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-687093.5152902921</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>116</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>123</v>
+      </c>
+      <c r="C470" t="n">
+        <v>123</v>
+      </c>
+      <c r="D470" t="n">
+        <v>123</v>
+      </c>
+      <c r="E470" t="n">
+        <v>123</v>
+      </c>
+      <c r="F470" t="n">
+        <v>7331.2782</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-687093.5152902921</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>116</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>124</v>
+      </c>
+      <c r="C471" t="n">
+        <v>124</v>
+      </c>
+      <c r="D471" t="n">
+        <v>124</v>
+      </c>
+      <c r="E471" t="n">
+        <v>124</v>
+      </c>
+      <c r="F471" t="n">
+        <v>13329.1126</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-673764.4026902921</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>116</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>124</v>
+      </c>
+      <c r="C472" t="n">
+        <v>123</v>
+      </c>
+      <c r="D472" t="n">
+        <v>124</v>
+      </c>
+      <c r="E472" t="n">
+        <v>123</v>
+      </c>
+      <c r="F472" t="n">
+        <v>55.4299</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-673819.8325902921</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>116</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>123</v>
+      </c>
+      <c r="C473" t="n">
+        <v>123</v>
+      </c>
+      <c r="D473" t="n">
+        <v>123</v>
+      </c>
+      <c r="E473" t="n">
+        <v>123</v>
+      </c>
+      <c r="F473" t="n">
+        <v>20511.7647</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-673819.8325902921</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>116</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>122</v>
+      </c>
+      <c r="C474" t="n">
+        <v>122</v>
+      </c>
+      <c r="D474" t="n">
+        <v>122</v>
+      </c>
+      <c r="E474" t="n">
+        <v>122</v>
+      </c>
+      <c r="F474" t="n">
+        <v>343.9521</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-674163.7846902921</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>116</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>122</v>
+      </c>
+      <c r="C475" t="n">
+        <v>122</v>
+      </c>
+      <c r="D475" t="n">
+        <v>122</v>
+      </c>
+      <c r="E475" t="n">
+        <v>122</v>
+      </c>
+      <c r="F475" t="n">
+        <v>14186.0267</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-674163.7846902921</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>116</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>123</v>
+      </c>
+      <c r="C476" t="n">
+        <v>123</v>
+      </c>
+      <c r="D476" t="n">
+        <v>123</v>
+      </c>
+      <c r="E476" t="n">
+        <v>123</v>
+      </c>
+      <c r="F476" t="n">
+        <v>289.2562</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-673874.5284902921</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>116</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>124</v>
+      </c>
+      <c r="C477" t="n">
+        <v>123</v>
+      </c>
+      <c r="D477" t="n">
+        <v>124</v>
+      </c>
+      <c r="E477" t="n">
+        <v>123</v>
+      </c>
+      <c r="F477" t="n">
+        <v>51.736</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-673874.5284902921</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>116</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>124</v>
+      </c>
+      <c r="C478" t="n">
+        <v>124</v>
+      </c>
+      <c r="D478" t="n">
+        <v>124</v>
+      </c>
+      <c r="E478" t="n">
+        <v>124</v>
+      </c>
+      <c r="F478" t="n">
+        <v>5876.4937</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-667998.0347902921</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>116</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>124</v>
+      </c>
+      <c r="C479" t="n">
+        <v>124</v>
+      </c>
+      <c r="D479" t="n">
+        <v>124</v>
+      </c>
+      <c r="E479" t="n">
+        <v>124</v>
+      </c>
+      <c r="F479" t="n">
+        <v>40011.4364</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-667998.0347902921</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>116</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>125</v>
+      </c>
+      <c r="C480" t="n">
+        <v>125</v>
+      </c>
+      <c r="D480" t="n">
+        <v>125</v>
+      </c>
+      <c r="E480" t="n">
+        <v>125</v>
+      </c>
+      <c r="F480" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-660998.0347902921</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>116</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>125</v>
+      </c>
+      <c r="C481" t="n">
+        <v>125</v>
+      </c>
+      <c r="D481" t="n">
+        <v>125</v>
+      </c>
+      <c r="E481" t="n">
+        <v>125</v>
+      </c>
+      <c r="F481" t="n">
+        <v>9604.096299999999</v>
+      </c>
+      <c r="G481" t="n">
+        <v>-660998.0347902921</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>116</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>125</v>
+      </c>
+      <c r="C482" t="n">
+        <v>125</v>
+      </c>
+      <c r="D482" t="n">
+        <v>125</v>
+      </c>
+      <c r="E482" t="n">
+        <v>125</v>
+      </c>
+      <c r="F482" t="n">
+        <v>22469.5709</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-660998.0347902921</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>116</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>126</v>
+      </c>
+      <c r="C483" t="n">
+        <v>126</v>
+      </c>
+      <c r="D483" t="n">
+        <v>126</v>
+      </c>
+      <c r="E483" t="n">
+        <v>126</v>
+      </c>
+      <c r="F483" t="n">
+        <v>4753.6392</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-656244.3955902922</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>116</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>126</v>
+      </c>
+      <c r="C484" t="n">
+        <v>126</v>
+      </c>
+      <c r="D484" t="n">
+        <v>126</v>
+      </c>
+      <c r="E484" t="n">
+        <v>126</v>
+      </c>
+      <c r="F484" t="n">
+        <v>23537.2339</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-656244.3955902922</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>116</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>126</v>
+      </c>
+      <c r="C485" t="n">
+        <v>128</v>
+      </c>
+      <c r="D485" t="n">
+        <v>128</v>
+      </c>
+      <c r="E485" t="n">
+        <v>126</v>
+      </c>
+      <c r="F485" t="n">
+        <v>25547.6541</v>
+      </c>
+      <c r="G485" t="n">
+        <v>-630696.7414902921</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>116</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>128</v>
+      </c>
+      <c r="C486" t="n">
+        <v>128</v>
+      </c>
+      <c r="D486" t="n">
+        <v>128</v>
+      </c>
+      <c r="E486" t="n">
+        <v>128</v>
+      </c>
+      <c r="F486" t="n">
+        <v>17646.7117</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-630696.7414902921</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>116</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>129</v>
+      </c>
+      <c r="C487" t="n">
+        <v>128</v>
+      </c>
+      <c r="D487" t="n">
+        <v>129</v>
+      </c>
+      <c r="E487" t="n">
+        <v>128</v>
+      </c>
+      <c r="F487" t="n">
+        <v>32904.9711</v>
+      </c>
+      <c r="G487" t="n">
+        <v>-630696.7414902921</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>116</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>129</v>
+      </c>
+      <c r="C488" t="n">
+        <v>128</v>
+      </c>
+      <c r="D488" t="n">
+        <v>129</v>
+      </c>
+      <c r="E488" t="n">
+        <v>128</v>
+      </c>
+      <c r="F488" t="n">
+        <v>13283.5619</v>
+      </c>
+      <c r="G488" t="n">
+        <v>-630696.7414902921</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>116</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>128</v>
+      </c>
+      <c r="C489" t="n">
+        <v>127</v>
+      </c>
+      <c r="D489" t="n">
+        <v>128</v>
+      </c>
+      <c r="E489" t="n">
+        <v>127</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1987.7108</v>
+      </c>
+      <c r="G489" t="n">
+        <v>-632684.4522902921</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>116</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L489" t="n">
+        <v>1</v>
+      </c>
+      <c r="M489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>127</v>
+      </c>
+      <c r="C490" t="n">
+        <v>127</v>
+      </c>
+      <c r="D490" t="n">
+        <v>127</v>
+      </c>
+      <c r="E490" t="n">
+        <v>127</v>
+      </c>
+      <c r="F490" t="n">
+        <v>22432.1645</v>
+      </c>
+      <c r="G490" t="n">
+        <v>-632684.4522902921</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>116</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L490" t="n">
+        <v>1</v>
+      </c>
+      <c r="M490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>127</v>
+      </c>
+      <c r="C491" t="n">
+        <v>127</v>
+      </c>
+      <c r="D491" t="n">
+        <v>128</v>
+      </c>
+      <c r="E491" t="n">
+        <v>127</v>
+      </c>
+      <c r="F491" t="n">
+        <v>8522.9833</v>
+      </c>
+      <c r="G491" t="n">
+        <v>-632684.4522902921</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>116</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L491" t="n">
+        <v>1</v>
+      </c>
+      <c r="M491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>128</v>
+      </c>
+      <c r="C492" t="n">
+        <v>129</v>
+      </c>
+      <c r="D492" t="n">
+        <v>129</v>
+      </c>
+      <c r="E492" t="n">
+        <v>128</v>
+      </c>
+      <c r="F492" t="n">
+        <v>30951.96</v>
+      </c>
+      <c r="G492" t="n">
+        <v>-601732.4922902922</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>116</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L492" t="n">
+        <v>1</v>
+      </c>
+      <c r="M492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>129</v>
+      </c>
+      <c r="C493" t="n">
+        <v>131</v>
+      </c>
+      <c r="D493" t="n">
+        <v>131</v>
+      </c>
+      <c r="E493" t="n">
+        <v>129</v>
+      </c>
+      <c r="F493" t="n">
+        <v>53521.17898167939</v>
+      </c>
+      <c r="G493" t="n">
+        <v>-548211.3133086128</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>116</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L493" t="n">
+        <v>1</v>
+      </c>
+      <c r="M493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>131</v>
+      </c>
+      <c r="C494" t="n">
+        <v>131</v>
+      </c>
+      <c r="D494" t="n">
+        <v>132</v>
+      </c>
+      <c r="E494" t="n">
+        <v>131</v>
+      </c>
+      <c r="F494" t="n">
+        <v>133794.5629</v>
+      </c>
+      <c r="G494" t="n">
+        <v>-548211.3133086128</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>116</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L494" t="n">
+        <v>1</v>
+      </c>
+      <c r="M494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>130</v>
+      </c>
+      <c r="C495" t="n">
+        <v>130</v>
+      </c>
+      <c r="D495" t="n">
+        <v>131</v>
+      </c>
+      <c r="E495" t="n">
+        <v>130</v>
+      </c>
+      <c r="F495" t="n">
+        <v>13430.79643846154</v>
+      </c>
+      <c r="G495" t="n">
+        <v>-561642.1097470743</v>
+      </c>
+      <c r="H495" t="n">
+        <v>2</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>116</v>
+      </c>
+      <c r="K495" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L448" t="n">
-        <v>1.064565217391304</v>
-      </c>
-      <c r="M448" t="n">
+      <c r="L495" t="n">
+        <v>1.115689655172414</v>
+      </c>
+      <c r="M495" t="n">
         <v>1.11304347826087</v>
       </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>124</v>
-      </c>
-      <c r="C449" t="n">
-        <v>124</v>
-      </c>
-      <c r="D449" t="n">
-        <v>124</v>
-      </c>
-      <c r="E449" t="n">
-        <v>124</v>
-      </c>
-      <c r="F449" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-690832.3097902922</v>
-      </c>
-      <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>124</v>
-      </c>
-      <c r="C450" t="n">
-        <v>124</v>
-      </c>
-      <c r="D450" t="n">
-        <v>124</v>
-      </c>
-      <c r="E450" t="n">
-        <v>124</v>
-      </c>
-      <c r="F450" t="n">
-        <v>22169.218</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-690832.3097902922</v>
-      </c>
-      <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>124</v>
-      </c>
-      <c r="C451" t="n">
-        <v>125</v>
-      </c>
-      <c r="D451" t="n">
-        <v>125</v>
-      </c>
-      <c r="E451" t="n">
-        <v>124</v>
-      </c>
-      <c r="F451" t="n">
-        <v>30111.4798</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-660720.8299902922</v>
-      </c>
-      <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>123</v>
-      </c>
-      <c r="C452" t="n">
-        <v>124</v>
-      </c>
-      <c r="D452" t="n">
-        <v>124</v>
-      </c>
-      <c r="E452" t="n">
-        <v>123</v>
-      </c>
-      <c r="F452" t="n">
-        <v>1553.8672</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-662274.6971902922</v>
-      </c>
-      <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>124</v>
-      </c>
-      <c r="C453" t="n">
-        <v>124</v>
-      </c>
-      <c r="D453" t="n">
-        <v>124</v>
-      </c>
-      <c r="E453" t="n">
-        <v>124</v>
-      </c>
-      <c r="F453" t="n">
-        <v>11557.7195</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-662274.6971902922</v>
-      </c>
-      <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>125</v>
-      </c>
-      <c r="C454" t="n">
-        <v>125</v>
-      </c>
-      <c r="D454" t="n">
-        <v>125</v>
-      </c>
-      <c r="E454" t="n">
-        <v>124</v>
-      </c>
-      <c r="F454" t="n">
-        <v>57.2217</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-662217.4754902922</v>
-      </c>
-      <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>125</v>
-      </c>
-      <c r="C455" t="n">
-        <v>125</v>
-      </c>
-      <c r="D455" t="n">
-        <v>125</v>
-      </c>
-      <c r="E455" t="n">
-        <v>125</v>
-      </c>
-      <c r="F455" t="n">
-        <v>35.3799</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-662217.4754902922</v>
-      </c>
-      <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>125</v>
-      </c>
-      <c r="C456" t="n">
-        <v>125</v>
-      </c>
-      <c r="D456" t="n">
-        <v>125</v>
-      </c>
-      <c r="E456" t="n">
-        <v>125</v>
-      </c>
-      <c r="F456" t="n">
-        <v>23594.5937</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-662217.4754902922</v>
-      </c>
-      <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>125</v>
-      </c>
-      <c r="C457" t="n">
-        <v>126</v>
-      </c>
-      <c r="D457" t="n">
-        <v>126</v>
-      </c>
-      <c r="E457" t="n">
-        <v>125</v>
-      </c>
-      <c r="F457" t="n">
-        <v>15833.4265</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-646384.0489902922</v>
-      </c>
-      <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>126</v>
-      </c>
-      <c r="C458" t="n">
-        <v>126</v>
-      </c>
-      <c r="D458" t="n">
-        <v>126</v>
-      </c>
-      <c r="E458" t="n">
-        <v>126</v>
-      </c>
-      <c r="F458" t="n">
-        <v>13.6033</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-646384.0489902922</v>
-      </c>
-      <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>125</v>
-      </c>
-      <c r="C459" t="n">
-        <v>125</v>
-      </c>
-      <c r="D459" t="n">
-        <v>125</v>
-      </c>
-      <c r="E459" t="n">
-        <v>125</v>
-      </c>
-      <c r="F459" t="n">
-        <v>450</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-646834.0489902922</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>126</v>
-      </c>
-      <c r="C460" t="n">
-        <v>126</v>
-      </c>
-      <c r="D460" t="n">
-        <v>126</v>
-      </c>
-      <c r="E460" t="n">
-        <v>126</v>
-      </c>
-      <c r="F460" t="n">
-        <v>29077.9156</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-617756.1333902923</v>
-      </c>
-      <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>126</v>
-      </c>
-      <c r="C461" t="n">
-        <v>127</v>
-      </c>
-      <c r="D461" t="n">
-        <v>127</v>
-      </c>
-      <c r="E461" t="n">
-        <v>126</v>
-      </c>
-      <c r="F461" t="n">
-        <v>6605</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-611151.1333902923</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>127</v>
-      </c>
-      <c r="C462" t="n">
-        <v>127</v>
-      </c>
-      <c r="D462" t="n">
-        <v>127</v>
-      </c>
-      <c r="E462" t="n">
-        <v>127</v>
-      </c>
-      <c r="F462" t="n">
-        <v>26898.267</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-611151.1333902923</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>127</v>
-      </c>
-      <c r="C463" t="n">
-        <v>126</v>
-      </c>
-      <c r="D463" t="n">
-        <v>127</v>
-      </c>
-      <c r="E463" t="n">
-        <v>126</v>
-      </c>
-      <c r="F463" t="n">
-        <v>36136.9644</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-647288.0977902922</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>126</v>
-      </c>
-      <c r="C464" t="n">
-        <v>127</v>
-      </c>
-      <c r="D464" t="n">
-        <v>127</v>
-      </c>
-      <c r="E464" t="n">
-        <v>126</v>
-      </c>
-      <c r="F464" t="n">
-        <v>13350.6123</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-633937.4854902922</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>126</v>
-      </c>
-      <c r="C465" t="n">
-        <v>126</v>
-      </c>
-      <c r="D465" t="n">
-        <v>126</v>
-      </c>
-      <c r="E465" t="n">
-        <v>126</v>
-      </c>
-      <c r="F465" t="n">
-        <v>1155.7096</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-635093.1950902921</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>126</v>
-      </c>
-      <c r="C466" t="n">
-        <v>126</v>
-      </c>
-      <c r="D466" t="n">
-        <v>127</v>
-      </c>
-      <c r="E466" t="n">
-        <v>126</v>
-      </c>
-      <c r="F466" t="n">
-        <v>891.8062992125984</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-635093.1950902921</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>126</v>
-      </c>
-      <c r="C467" t="n">
-        <v>126</v>
-      </c>
-      <c r="D467" t="n">
-        <v>126</v>
-      </c>
-      <c r="E467" t="n">
-        <v>126</v>
-      </c>
-      <c r="F467" t="n">
-        <v>590.2307</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-635093.1950902921</v>
-      </c>
-      <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>125</v>
-      </c>
-      <c r="C468" t="n">
-        <v>124</v>
-      </c>
-      <c r="D468" t="n">
-        <v>125</v>
-      </c>
-      <c r="E468" t="n">
-        <v>124</v>
-      </c>
-      <c r="F468" t="n">
-        <v>6215.9343</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-641309.1293902921</v>
-      </c>
-      <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>124</v>
-      </c>
-      <c r="C469" t="n">
-        <v>123</v>
-      </c>
-      <c r="D469" t="n">
-        <v>124</v>
-      </c>
-      <c r="E469" t="n">
-        <v>123</v>
-      </c>
-      <c r="F469" t="n">
-        <v>45784.3859</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-687093.5152902921</v>
-      </c>
-      <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>123</v>
-      </c>
-      <c r="C470" t="n">
-        <v>123</v>
-      </c>
-      <c r="D470" t="n">
-        <v>123</v>
-      </c>
-      <c r="E470" t="n">
-        <v>123</v>
-      </c>
-      <c r="F470" t="n">
-        <v>7331.2782</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-687093.5152902921</v>
-      </c>
-      <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>124</v>
-      </c>
-      <c r="C471" t="n">
-        <v>124</v>
-      </c>
-      <c r="D471" t="n">
-        <v>124</v>
-      </c>
-      <c r="E471" t="n">
-        <v>124</v>
-      </c>
-      <c r="F471" t="n">
-        <v>13329.1126</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-673764.4026902921</v>
-      </c>
-      <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>124</v>
-      </c>
-      <c r="C472" t="n">
-        <v>123</v>
-      </c>
-      <c r="D472" t="n">
-        <v>124</v>
-      </c>
-      <c r="E472" t="n">
-        <v>123</v>
-      </c>
-      <c r="F472" t="n">
-        <v>55.4299</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-673819.8325902921</v>
-      </c>
-      <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>123</v>
-      </c>
-      <c r="C473" t="n">
-        <v>123</v>
-      </c>
-      <c r="D473" t="n">
-        <v>123</v>
-      </c>
-      <c r="E473" t="n">
-        <v>123</v>
-      </c>
-      <c r="F473" t="n">
-        <v>20511.7647</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-673819.8325902921</v>
-      </c>
-      <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>122</v>
-      </c>
-      <c r="C474" t="n">
-        <v>122</v>
-      </c>
-      <c r="D474" t="n">
-        <v>122</v>
-      </c>
-      <c r="E474" t="n">
-        <v>122</v>
-      </c>
-      <c r="F474" t="n">
-        <v>343.9521</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-674163.7846902921</v>
-      </c>
-      <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>122</v>
-      </c>
-      <c r="C475" t="n">
-        <v>122</v>
-      </c>
-      <c r="D475" t="n">
-        <v>122</v>
-      </c>
-      <c r="E475" t="n">
-        <v>122</v>
-      </c>
-      <c r="F475" t="n">
-        <v>14186.0267</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-674163.7846902921</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>123</v>
-      </c>
-      <c r="C476" t="n">
-        <v>123</v>
-      </c>
-      <c r="D476" t="n">
-        <v>123</v>
-      </c>
-      <c r="E476" t="n">
-        <v>123</v>
-      </c>
-      <c r="F476" t="n">
-        <v>289.2562</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-673874.5284902921</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>124</v>
-      </c>
-      <c r="C477" t="n">
-        <v>123</v>
-      </c>
-      <c r="D477" t="n">
-        <v>124</v>
-      </c>
-      <c r="E477" t="n">
-        <v>123</v>
-      </c>
-      <c r="F477" t="n">
-        <v>51.736</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-673874.5284902921</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>124</v>
-      </c>
-      <c r="C478" t="n">
-        <v>124</v>
-      </c>
-      <c r="D478" t="n">
-        <v>124</v>
-      </c>
-      <c r="E478" t="n">
-        <v>124</v>
-      </c>
-      <c r="F478" t="n">
-        <v>5876.4937</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-667998.0347902921</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>124</v>
-      </c>
-      <c r="C479" t="n">
-        <v>124</v>
-      </c>
-      <c r="D479" t="n">
-        <v>124</v>
-      </c>
-      <c r="E479" t="n">
-        <v>124</v>
-      </c>
-      <c r="F479" t="n">
-        <v>40011.4364</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-667998.0347902921</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>125</v>
-      </c>
-      <c r="C480" t="n">
-        <v>125</v>
-      </c>
-      <c r="D480" t="n">
-        <v>125</v>
-      </c>
-      <c r="E480" t="n">
-        <v>125</v>
-      </c>
-      <c r="F480" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-660998.0347902921</v>
-      </c>
-      <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>125</v>
-      </c>
-      <c r="C481" t="n">
-        <v>125</v>
-      </c>
-      <c r="D481" t="n">
-        <v>125</v>
-      </c>
-      <c r="E481" t="n">
-        <v>125</v>
-      </c>
-      <c r="F481" t="n">
-        <v>9604.096299999999</v>
-      </c>
-      <c r="G481" t="n">
-        <v>-660998.0347902921</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>125</v>
-      </c>
-      <c r="C482" t="n">
-        <v>125</v>
-      </c>
-      <c r="D482" t="n">
-        <v>125</v>
-      </c>
-      <c r="E482" t="n">
-        <v>125</v>
-      </c>
-      <c r="F482" t="n">
-        <v>22469.5709</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-660998.0347902921</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>126</v>
-      </c>
-      <c r="C483" t="n">
-        <v>126</v>
-      </c>
-      <c r="D483" t="n">
-        <v>126</v>
-      </c>
-      <c r="E483" t="n">
-        <v>126</v>
-      </c>
-      <c r="F483" t="n">
-        <v>4753.6392</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-656244.3955902922</v>
-      </c>
-      <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>126</v>
-      </c>
-      <c r="C484" t="n">
-        <v>126</v>
-      </c>
-      <c r="D484" t="n">
-        <v>126</v>
-      </c>
-      <c r="E484" t="n">
-        <v>126</v>
-      </c>
-      <c r="F484" t="n">
-        <v>23537.2339</v>
-      </c>
-      <c r="G484" t="n">
-        <v>-656244.3955902922</v>
-      </c>
-      <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>126</v>
-      </c>
-      <c r="C485" t="n">
-        <v>128</v>
-      </c>
-      <c r="D485" t="n">
-        <v>128</v>
-      </c>
-      <c r="E485" t="n">
-        <v>126</v>
-      </c>
-      <c r="F485" t="n">
-        <v>25547.6541</v>
-      </c>
-      <c r="G485" t="n">
-        <v>-630696.7414902921</v>
-      </c>
-      <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>128</v>
-      </c>
-      <c r="C486" t="n">
-        <v>128</v>
-      </c>
-      <c r="D486" t="n">
-        <v>128</v>
-      </c>
-      <c r="E486" t="n">
-        <v>128</v>
-      </c>
-      <c r="F486" t="n">
-        <v>17646.7117</v>
-      </c>
-      <c r="G486" t="n">
-        <v>-630696.7414902921</v>
-      </c>
-      <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>129</v>
-      </c>
-      <c r="C487" t="n">
-        <v>128</v>
-      </c>
-      <c r="D487" t="n">
-        <v>129</v>
-      </c>
-      <c r="E487" t="n">
-        <v>128</v>
-      </c>
-      <c r="F487" t="n">
-        <v>32904.9711</v>
-      </c>
-      <c r="G487" t="n">
-        <v>-630696.7414902921</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>129</v>
-      </c>
-      <c r="C488" t="n">
-        <v>128</v>
-      </c>
-      <c r="D488" t="n">
-        <v>129</v>
-      </c>
-      <c r="E488" t="n">
-        <v>128</v>
-      </c>
-      <c r="F488" t="n">
-        <v>13283.5619</v>
-      </c>
-      <c r="G488" t="n">
-        <v>-630696.7414902921</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
-      <c r="M488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>128</v>
-      </c>
-      <c r="C489" t="n">
-        <v>127</v>
-      </c>
-      <c r="D489" t="n">
-        <v>128</v>
-      </c>
-      <c r="E489" t="n">
-        <v>127</v>
-      </c>
-      <c r="F489" t="n">
-        <v>1987.7108</v>
-      </c>
-      <c r="G489" t="n">
-        <v>-632684.4522902921</v>
-      </c>
-      <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="n">
-        <v>1</v>
-      </c>
-      <c r="M489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>127</v>
-      </c>
-      <c r="C490" t="n">
-        <v>127</v>
-      </c>
-      <c r="D490" t="n">
-        <v>127</v>
-      </c>
-      <c r="E490" t="n">
-        <v>127</v>
-      </c>
-      <c r="F490" t="n">
-        <v>22432.1645</v>
-      </c>
-      <c r="G490" t="n">
-        <v>-632684.4522902921</v>
-      </c>
-      <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="n">
-        <v>1</v>
-      </c>
-      <c r="M490" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>127</v>
-      </c>
-      <c r="C491" t="n">
-        <v>127</v>
-      </c>
-      <c r="D491" t="n">
-        <v>128</v>
-      </c>
-      <c r="E491" t="n">
-        <v>127</v>
-      </c>
-      <c r="F491" t="n">
-        <v>8522.9833</v>
-      </c>
-      <c r="G491" t="n">
-        <v>-632684.4522902921</v>
-      </c>
-      <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="n">
-        <v>1</v>
-      </c>
-      <c r="M491" t="inlineStr"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="n">
-        <v>128</v>
-      </c>
-      <c r="C492" t="n">
-        <v>129</v>
-      </c>
-      <c r="D492" t="n">
-        <v>129</v>
-      </c>
-      <c r="E492" t="n">
-        <v>128</v>
-      </c>
-      <c r="F492" t="n">
-        <v>30951.96</v>
-      </c>
-      <c r="G492" t="n">
-        <v>-601732.4922902922</v>
-      </c>
-      <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="n">
-        <v>1</v>
-      </c>
-      <c r="M492" t="inlineStr"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="n">
-        <v>129</v>
-      </c>
-      <c r="C493" t="n">
-        <v>131</v>
-      </c>
-      <c r="D493" t="n">
-        <v>131</v>
-      </c>
-      <c r="E493" t="n">
-        <v>129</v>
-      </c>
-      <c r="F493" t="n">
-        <v>53521.17898167939</v>
-      </c>
-      <c r="G493" t="n">
-        <v>-548211.3133086128</v>
-      </c>
-      <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="n">
-        <v>1</v>
-      </c>
-      <c r="M493" t="inlineStr"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="n">
-        <v>131</v>
-      </c>
-      <c r="C494" t="n">
-        <v>131</v>
-      </c>
-      <c r="D494" t="n">
-        <v>132</v>
-      </c>
-      <c r="E494" t="n">
-        <v>131</v>
-      </c>
-      <c r="F494" t="n">
-        <v>133794.5629</v>
-      </c>
-      <c r="G494" t="n">
-        <v>-548211.3133086128</v>
-      </c>
-      <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="n">
-        <v>1</v>
-      </c>
-      <c r="M494" t="inlineStr"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="n">
-        <v>130</v>
-      </c>
-      <c r="C495" t="n">
-        <v>130</v>
-      </c>
-      <c r="D495" t="n">
-        <v>131</v>
-      </c>
-      <c r="E495" t="n">
-        <v>130</v>
-      </c>
-      <c r="F495" t="n">
-        <v>13430.79643846154</v>
-      </c>
-      <c r="G495" t="n">
-        <v>-561642.1097470743</v>
-      </c>
-      <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="n">
-        <v>1</v>
-      </c>
-      <c r="M495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -17368,7 +17716,7 @@
         <v>-540407.9542989827</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17401,7 +17749,7 @@
         <v>-554855.0954989827</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17434,7 +17782,7 @@
         <v>-629636.4408470743</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17467,7 +17815,7 @@
         <v>-629636.4408470743</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17665,7 +18013,7 @@
         <v>-563114.6536768451</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17698,7 +18046,7 @@
         <v>-575718.1855768451</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17731,7 +18079,7 @@
         <v>-487200.1885999794</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17764,7 +18112,7 @@
         <v>-521422.7664999794</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17797,7 +18145,7 @@
         <v>-521422.7664999794</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17830,7 +18178,7 @@
         <v>-592672.5997381473</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17863,7 +18211,7 @@
         <v>-610924.4410381473</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17896,7 +18244,7 @@
         <v>-610924.4410381473</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17929,7 +18277,7 @@
         <v>-608979.4257709717</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17962,7 +18310,7 @@
         <v>-581306.3822126788</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17995,7 +18343,7 @@
         <v>-581984.4181126788</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18028,7 +18376,7 @@
         <v>-581984.4181126788</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18061,7 +18409,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18094,7 +18442,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18127,7 +18475,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18160,7 +18508,7 @@
         <v>-600221.8449126788</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
